--- a/tests/airconditioning/★空調設備テストケース一覧.xlsx
+++ b/tests/airconditioning/★空調設備テストケース一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Python/builelib/tests/airconditioning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCF5FD9-BCDD-BD45-A51E-366DAD8E73BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A4CE12-7BF5-1F47-A552-CD07DE65DC6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61120" yWindow="2400" windowWidth="32000" windowHeight="19340" xr2:uid="{60C330FB-41C1-A04B-99B2-744427EAABC1}"/>
+    <workbookView xWindow="61640" yWindow="1500" windowWidth="32000" windowHeight="19340" xr2:uid="{60C330FB-41C1-A04B-99B2-744427EAABC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>ケース名</t>
     <phoneticPr fontId="1"/>
@@ -297,6 +297,110 @@
     <t>外気関係制御複数（外調機）</t>
     <rPh sb="9" eb="12">
       <t xml:space="preserve">ガイチョウキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case013</t>
+  </si>
+  <si>
+    <t>Case014</t>
+  </si>
+  <si>
+    <t>Case015</t>
+  </si>
+  <si>
+    <t>Case016</t>
+  </si>
+  <si>
+    <t>Case017</t>
+  </si>
+  <si>
+    <t>Case018</t>
+  </si>
+  <si>
+    <t>Case019</t>
+  </si>
+  <si>
+    <t>Case020</t>
+  </si>
+  <si>
+    <t>二次ポンプ群</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ニジポンプグｎ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小さめ1台（過負荷）</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">チイサメ </t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t xml:space="preserve">カフカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台数制御</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ダイスウセイギョ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台数制御+2台目回転数制御</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ダイスウセイギョ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ダイメ </t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t xml:space="preserve">カイテンスウ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">セイギョ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台数制御+1台目回転数制御</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台数制御+両方回転数制御</t>
+    <rPh sb="5" eb="7">
+      <t>リョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷水・温水系統分離</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">レイスイ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">オンスイ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ケイトウ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">ブンリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外調機系統</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ガイチョウキ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ケイトウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -325,12 +429,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -347,11 +457,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -668,14 +784,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CDC679-BA02-AE4E-A1A7-B05B8FCEDC09}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="13" width="14.28515625" style="1" customWidth="1"/>
@@ -1214,6 +1331,334 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="1">
+        <v>420621.558252146</v>
+      </c>
+      <c r="F14" s="1">
+        <v>124066.3872</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>58017.343999999997</v>
+      </c>
+      <c r="I14" s="1">
+        <v>238537.82705214599</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1">
+        <v>402550.235245944</v>
+      </c>
+      <c r="F15" s="1">
+        <v>124066.3872</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>34795.375999999997</v>
+      </c>
+      <c r="I15" s="1">
+        <v>243688.47204594401</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="2" customFormat="1">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3">
+        <v>445680.62187975401</v>
+      </c>
+      <c r="F16" s="3">
+        <v>124066.3872</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>78158.0799999999</v>
+      </c>
+      <c r="I16" s="3">
+        <v>243456.15467975399</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="1">
+        <v>454520.67340466002</v>
+      </c>
+      <c r="F17" s="1">
+        <v>124066.3872</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>89581.183999999994</v>
+      </c>
+      <c r="I17" s="1">
+        <v>240873.10220466001</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="1">
+        <v>440862.92369452602</v>
+      </c>
+      <c r="F18" s="1">
+        <v>124066.3872</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>69109.779200000004</v>
+      </c>
+      <c r="I18" s="1">
+        <v>247686.757294526</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1">
+        <v>441238.68369452597</v>
+      </c>
+      <c r="F19" s="1">
+        <v>124066.3872</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>69485.539199999999</v>
+      </c>
+      <c r="I19" s="1">
+        <v>247686.757294526</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1">
+        <v>454864.80005484802</v>
+      </c>
+      <c r="F20" s="1">
+        <v>124066.3872</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>88706.687999999995</v>
+      </c>
+      <c r="I20" s="1">
+        <v>242091.724854848</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1">
+        <v>558760.88711887202</v>
+      </c>
+      <c r="F21" s="1">
+        <v>121395.61199999999</v>
+      </c>
+      <c r="G21" s="1">
+        <v>13172.096</v>
+      </c>
+      <c r="H21" s="1">
+        <v>52736.207999999999</v>
+      </c>
+      <c r="I21" s="1">
+        <v>371456.97111887101</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/airconditioning/★空調設備テストケース一覧.xlsx
+++ b/tests/airconditioning/★空調設備テストケース一覧.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Python/builelib/tests/airconditioning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A4CE12-7BF5-1F47-A552-CD07DE65DC6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2ACADC-AFC2-7A47-9BCC-DE05DD69F90C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61640" yWindow="1500" windowWidth="32000" windowHeight="19340" xr2:uid="{60C330FB-41C1-A04B-99B2-744427EAABC1}"/>
+    <workbookView xWindow="14560" yWindow="6960" windowWidth="32860" windowHeight="20540" xr2:uid="{60C330FB-41C1-A04B-99B2-744427EAABC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -457,7 +457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -468,6 +468,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -784,15 +787,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CDC679-BA02-AE4E-A1A7-B05B8FCEDC09}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="182" zoomScaleNormal="233" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="13" width="14.28515625" style="1" customWidth="1"/>
@@ -1659,6 +1662,9 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:13">
+      <c r="F22" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/airconditioning/★空調設備テストケース一覧.xlsx
+++ b/tests/airconditioning/★空調設備テストケース一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Python/builelib/tests/airconditioning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2ACADC-AFC2-7A47-9BCC-DE05DD69F90C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF692A6-5EA3-3447-9D37-906CE041929A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14560" yWindow="6960" windowWidth="32860" windowHeight="20540" xr2:uid="{60C330FB-41C1-A04B-99B2-744427EAABC1}"/>
+    <workbookView xWindow="61600" yWindow="1540" windowWidth="29340" windowHeight="19900" xr2:uid="{60C330FB-41C1-A04B-99B2-744427EAABC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="81">
   <si>
     <t>ケース名</t>
     <phoneticPr fontId="1"/>
@@ -401,6 +401,208 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t xml:space="preserve">ケイトウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case021</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熱源群</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ネツゲングｎ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水冷熱源1台</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">スイレイ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ネツゲン </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空冷熱源1台</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">クウレイ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ネツゲン </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case022</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吸収式熱源1台（過負荷なし）</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">キュウシュウシキ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ネツゲン </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t xml:space="preserve">カフカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case024</t>
+  </si>
+  <si>
+    <t>吸収式熱源1台（過負荷あり）</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">キュウシュウシキ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ネツゲン </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t xml:space="preserve">カフカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吸収式熱源1台（変流量）</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">キュウシュウシキ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ネツゲン </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ヘｎ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ヘンリュウリョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case025</t>
+  </si>
+  <si>
+    <t>Case023</t>
+  </si>
+  <si>
+    <t>Case026</t>
+  </si>
+  <si>
+    <t>Case027</t>
+  </si>
+  <si>
+    <t>Case028</t>
+  </si>
+  <si>
+    <t>Case029</t>
+  </si>
+  <si>
+    <t>Case030</t>
+  </si>
+  <si>
+    <t>Case031</t>
+  </si>
+  <si>
+    <t>Case032</t>
+  </si>
+  <si>
+    <t>熱源群</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発電機能付きGHP（1台）</t>
+    <rPh sb="0" eb="5">
+      <t xml:space="preserve">ハツデンキノウツキ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地中熱PAC（1台）</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">チチュウネツ </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機器の台数変更</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キキノ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ダイスウ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台数制御</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ダイスウセイギョ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷暖システム分離</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">レイダンブンリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外調機用熱源別系統</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ガイチョウキ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ヨウ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ネツゲン </t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t xml:space="preserve">ベツケイトウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電気系・燃焼系複合</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">デンキケイ </t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">ネンショウケイ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">フクゴウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -470,7 +672,7 @@
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -787,16 +989,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CDC679-BA02-AE4E-A1A7-B05B8FCEDC09}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="182" zoomScaleNormal="233" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="13" width="14.28515625" style="1" customWidth="1"/>
   </cols>
@@ -1416,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="2" customFormat="1">
+    <row r="16" spans="1:13" s="4" customFormat="1">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -1663,7 +1865,496 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="F22" s="4"/>
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1">
+        <v>426144.74368151498</v>
+      </c>
+      <c r="F22" s="1">
+        <v>124066.3872</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>38122.559999999998</v>
+      </c>
+      <c r="I22" s="1">
+        <v>239893.49248151499</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>24062.303999999898</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1">
+        <v>413914.39260702202</v>
+      </c>
+      <c r="F23" s="1">
+        <v>124066.3872</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>38122.559999999998</v>
+      </c>
+      <c r="I23" s="1">
+        <v>216287.86140702199</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>24062.303999999898</v>
+      </c>
+      <c r="L23" s="1">
+        <v>7583.52</v>
+      </c>
+      <c r="M23" s="1">
+        <v>3791.76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="1">
+        <v>299682.61110553698</v>
+      </c>
+      <c r="F24" s="1">
+        <v>124066.3872</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>38122.559999999998</v>
+      </c>
+      <c r="I24" s="1">
+        <v>69171.937926589904</v>
+      </c>
+      <c r="J24" s="1">
+        <v>32884.141978947402</v>
+      </c>
+      <c r="K24" s="1">
+        <v>24062.303999999898</v>
+      </c>
+      <c r="L24" s="1">
+        <v>7583.52</v>
+      </c>
+      <c r="M24" s="1">
+        <v>3791.76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="3">
+        <v>311377.18960971601</v>
+      </c>
+      <c r="F25" s="3">
+        <v>124066.3872</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>38122.559999999998</v>
+      </c>
+      <c r="I25" s="3">
+        <v>77172.202325506107</v>
+      </c>
+      <c r="J25" s="3">
+        <v>36578.4560842106</v>
+      </c>
+      <c r="K25" s="3">
+        <v>24062.303999999898</v>
+      </c>
+      <c r="L25" s="3">
+        <v>7583.52</v>
+      </c>
+      <c r="M25" s="3">
+        <v>3791.76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="3">
+        <v>355691.69908340101</v>
+      </c>
+      <c r="F26" s="3">
+        <v>124066.3872</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>38122.559999999998</v>
+      </c>
+      <c r="I26" s="3">
+        <v>77172.202325506107</v>
+      </c>
+      <c r="J26" s="3">
+        <v>36578.4560842106</v>
+      </c>
+      <c r="K26" s="3">
+        <v>24062.303999999898</v>
+      </c>
+      <c r="L26" s="3">
+        <v>7583.52</v>
+      </c>
+      <c r="M26" s="3">
+        <v>48106.269473684202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="1">
+        <v>294575.93022024701</v>
+      </c>
+      <c r="F27" s="1">
+        <v>124066.3872</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>38122.559999999998</v>
+      </c>
+      <c r="I27" s="1">
+        <v>73176.992025135303</v>
+      </c>
+      <c r="J27" s="1">
+        <v>35147.686995111799</v>
+      </c>
+      <c r="K27" s="1">
+        <v>24062.303999999898</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1">
+        <v>367863.088740748</v>
+      </c>
+      <c r="F28" s="1">
+        <v>124066.3872</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>38122.559999999998</v>
+      </c>
+      <c r="I28" s="1">
+        <v>205674.14154074801</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1">
+        <v>292910.87266384799</v>
+      </c>
+      <c r="F29" s="1">
+        <v>124066.3872</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>38122.559999999998</v>
+      </c>
+      <c r="I29" s="1">
+        <v>130721.925463847</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="1">
+        <v>290212.30856309802</v>
+      </c>
+      <c r="F30" s="1">
+        <v>124066.3872</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>38122.559999999998</v>
+      </c>
+      <c r="I30" s="1">
+        <v>128023.361363098</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="1">
+        <v>285608.589694447</v>
+      </c>
+      <c r="F31" s="1">
+        <v>124066.3872</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>38122.559999999998</v>
+      </c>
+      <c r="I31" s="1">
+        <v>123419.64249444701</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="1">
+        <v>406020.15891969699</v>
+      </c>
+      <c r="F32" s="1">
+        <v>121395.61199999999</v>
+      </c>
+      <c r="G32" s="1">
+        <v>13172.096</v>
+      </c>
+      <c r="H32" s="1">
+        <v>49395.360000000001</v>
+      </c>
+      <c r="I32" s="1">
+        <v>222057.09091969699</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="1">
+        <v>423901.75960456999</v>
+      </c>
+      <c r="F33" s="1">
+        <v>121395.61199999999</v>
+      </c>
+      <c r="G33" s="1">
+        <v>13172.096</v>
+      </c>
+      <c r="H33" s="1">
+        <v>49395.360000000001</v>
+      </c>
+      <c r="I33" s="1">
+        <v>179700.762094081</v>
+      </c>
+      <c r="J33" s="1">
+        <v>12386.601510488999</v>
+      </c>
+      <c r="K33" s="1">
+        <v>25579.007999999802</v>
+      </c>
+      <c r="L33" s="1">
+        <v>16704.2399999999</v>
+      </c>
+      <c r="M33" s="1">
+        <v>5568.0799999999899</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/tests/airconditioning/★空調設備テストケース一覧.xlsx
+++ b/tests/airconditioning/★空調設備テストケース一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Python/builelib/tests/airconditioning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF692A6-5EA3-3447-9D37-906CE041929A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AABD41-F312-824D-8EF7-F28F44025BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61600" yWindow="1540" windowWidth="29340" windowHeight="19900" xr2:uid="{60C330FB-41C1-A04B-99B2-744427EAABC1}"/>
+    <workbookView xWindow="800" yWindow="460" windowWidth="32800" windowHeight="20540" xr2:uid="{60C330FB-41C1-A04B-99B2-744427EAABC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="87">
   <si>
     <t>ケース名</t>
     <phoneticPr fontId="1"/>
@@ -603,6 +603,54 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t xml:space="preserve">フクゴウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case033</t>
+  </si>
+  <si>
+    <t>Case034</t>
+  </si>
+  <si>
+    <t>Case035</t>
+  </si>
+  <si>
+    <t>氷蓄熱（過負荷なし）</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">コオリチクネツ </t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">カフカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水蓄熱成層型（過負荷なし）</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ミズチクネツ </t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t xml:space="preserve">セイソウガタ </t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t xml:space="preserve">カフカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水蓄熱混合型（過負荷あり）</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ミズチクネツ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">コンゴウ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">セイソウガタ </t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t xml:space="preserve">カフカ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -989,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CDC679-BA02-AE4E-A1A7-B05B8FCEDC09}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2356,6 +2404,129 @@
         <v>5568.0799999999899</v>
       </c>
     </row>
+    <row r="34" spans="1:13">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1">
+        <v>444275.607841702</v>
+      </c>
+      <c r="F34" s="1">
+        <v>124066.3872</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>38122.559999999998</v>
+      </c>
+      <c r="I34" s="1">
+        <v>246877.39117346299</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <v>35209.269468239203</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="1">
+        <v>440952.68814158603</v>
+      </c>
+      <c r="F35" s="1">
+        <v>124066.3872</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>38122.559999999998</v>
+      </c>
+      <c r="I35" s="1">
+        <v>243569.54137393201</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1">
+        <v>35194.199567654403</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="3">
+        <v>434222.60656887299</v>
+      </c>
+      <c r="F36" s="3">
+        <v>124066.3872</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>38122.559999999998</v>
+      </c>
+      <c r="I36" s="3">
+        <v>236962.259672277</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>35071.399696595101</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/airconditioning/★空調設備テストケース一覧.xlsx
+++ b/tests/airconditioning/★空調設備テストケース一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Python/builelib/tests/airconditioning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AABD41-F312-824D-8EF7-F28F44025BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDD40CB-3E1A-4E42-BC38-15A0F19AB228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="460" windowWidth="32800" windowHeight="20540" xr2:uid="{60C330FB-41C1-A04B-99B2-744427EAABC1}"/>
+    <workbookView xWindow="61720" yWindow="2520" windowWidth="29320" windowHeight="17680" xr2:uid="{60C330FB-41C1-A04B-99B2-744427EAABC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>ケース名</t>
     <phoneticPr fontId="1"/>
@@ -446,39 +446,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>吸収式熱源1台（過負荷なし）</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">キュウシュウシキ </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">ネツゲン </t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">ダイ </t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t xml:space="preserve">カフカ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Case024</t>
-  </si>
-  <si>
-    <t>吸収式熱源1台（過負荷あり）</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">キュウシュウシキ </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">ネツゲン </t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">ダイ </t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t xml:space="preserve">カフカ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>吸収式熱源1台（変流量）</t>
@@ -652,6 +620,70 @@
     <rPh sb="7" eb="10">
       <t xml:space="preserve">カフカ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吸収式熱源1台（過負荷あり 20kW）</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">キュウシュウシキ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ネツゲン </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t xml:space="preserve">カフカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吸収式熱源1台（過負荷あり 16kW）</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">キュウシュウシキ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ネツゲン </t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">ダイ </t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t xml:space="preserve">カフカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case036</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全熱交換器あり（別設置）+複数台</t>
+    <rPh sb="0" eb="5">
+      <t xml:space="preserve">ゼンネツコウカンキ </t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t xml:space="preserve">ベツセッチ </t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t xml:space="preserve">フクスウダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case037</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ソウゴウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冷暖同時供給あり</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1037,16 +1069,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CDC679-BA02-AE4E-A1A7-B05B8FCEDC09}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="13" width="14.28515625" style="1" customWidth="1"/>
   </cols>
@@ -1996,13 +2028,13 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -2037,13 +2069,13 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>22</v>
@@ -2078,13 +2110,13 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>22</v>
@@ -2119,13 +2151,13 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -2160,13 +2192,13 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2201,13 +2233,13 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
         <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -2242,13 +2274,13 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
         <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -2283,13 +2315,13 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -2324,13 +2356,13 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
         <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -2365,13 +2397,13 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
         <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -2406,13 +2438,13 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B34" t="s">
         <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -2447,13 +2479,13 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
@@ -2488,13 +2520,13 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>22</v>
@@ -2524,6 +2556,88 @@
         <v>0</v>
       </c>
       <c r="M36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="1">
+        <v>712872.54938131</v>
+      </c>
+      <c r="F37" s="1">
+        <v>258313.72320000001</v>
+      </c>
+      <c r="G37" s="1">
+        <v>82325.600000000006</v>
+      </c>
+      <c r="H37" s="1">
+        <v>40172.159999999902</v>
+      </c>
+      <c r="I37" s="1">
+        <v>332061.06618130999</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="1">
+        <v>423931.28817288298</v>
+      </c>
+      <c r="F38" s="1">
+        <v>124449.1744</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>43041.599999999999</v>
+      </c>
+      <c r="I38" s="1">
+        <v>256440.51377288299</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0</v>
+      </c>
+      <c r="M38" s="1">
         <v>0</v>
       </c>
     </row>

--- a/tests/airconditioning/★空調設備テストケース一覧.xlsx
+++ b/tests/airconditioning/★空調設備テストケース一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Python/builelib/tests/airconditioning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDD40CB-3E1A-4E42-BC38-15A0F19AB228}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E62823-2790-7A49-8F86-CD33599CD781}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61720" yWindow="2520" windowWidth="29320" windowHeight="17680" xr2:uid="{60C330FB-41C1-A04B-99B2-744427EAABC1}"/>
+    <workbookView xWindow="60260" yWindow="1200" windowWidth="33600" windowHeight="20540" xr2:uid="{60C330FB-41C1-A04B-99B2-744427EAABC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="104">
   <si>
     <t>ケース名</t>
     <phoneticPr fontId="1"/>
@@ -483,9 +483,6 @@
     <t>Case028</t>
   </si>
   <si>
-    <t>Case029</t>
-  </si>
-  <si>
     <t>Case030</t>
   </si>
   <si>
@@ -683,7 +680,86 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>冷暖同時供給あり</t>
+    <t>Case01+冷暖同時供給あり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case038</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case05+冷暖同時供給あり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case039</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case11+冷暖同時供給あり</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case040</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case20+冷暖同時供給あり</t>
+    <rPh sb="7" eb="11">
+      <t xml:space="preserve">レイダンドウジ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">キョウキュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case029</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case29+冷暖同時供給あり</t>
+    <rPh sb="7" eb="11">
+      <t xml:space="preserve">レイダンドウジ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">キョウキュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case041</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case30+冷暖同時供給あり</t>
+    <rPh sb="7" eb="11">
+      <t xml:space="preserve">レイダンドウジ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">キョウキュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case042</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case33+冷暖同時供給あり</t>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">レイダン </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ドウジ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">キョウキュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case043</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1069,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CDC679-BA02-AE4E-A1A7-B05B8FCEDC09}">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2034,7 +2110,7 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -2075,7 +2151,7 @@
         <v>56</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>22</v>
@@ -2154,10 +2230,10 @@
         <v>64</v>
       </c>
       <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
         <v>71</v>
-      </c>
-      <c r="C27" t="s">
-        <v>72</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -2198,7 +2274,7 @@
         <v>56</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2239,7 +2315,7 @@
         <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -2274,13 +2350,13 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
         <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -2315,13 +2391,13 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -2356,13 +2432,13 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
         <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -2397,13 +2473,13 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
         <v>56</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -2438,13 +2514,13 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
         <v>56</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -2479,13 +2555,13 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
         <v>56</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
@@ -2520,13 +2596,13 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>22</v>
@@ -2561,13 +2637,13 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -2602,13 +2678,13 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
         <v>89</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>90</v>
-      </c>
-      <c r="C38" t="s">
-        <v>91</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
@@ -2638,6 +2714,252 @@
         <v>0</v>
       </c>
       <c r="M38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="1">
+        <v>622249.40902103798</v>
+      </c>
+      <c r="F39" s="1">
+        <v>135875.01120000001</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>49805.279999999999</v>
+      </c>
+      <c r="I39" s="1">
+        <v>436569.117821038</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="1">
+        <v>533681.79680966295</v>
+      </c>
+      <c r="F40" s="1">
+        <v>106750.6832</v>
+      </c>
+      <c r="G40" s="1">
+        <v>13172.096</v>
+      </c>
+      <c r="H40" s="1">
+        <v>46730.879999999997</v>
+      </c>
+      <c r="I40" s="1">
+        <v>367028.13760966301</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="1">
+        <v>732413.226177025</v>
+      </c>
+      <c r="F41" s="1">
+        <v>133435.25520000001</v>
+      </c>
+      <c r="G41" s="1">
+        <v>13172.096</v>
+      </c>
+      <c r="H41" s="1">
+        <v>82373.423999999897</v>
+      </c>
+      <c r="I41" s="1">
+        <v>503432.45097702497</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="1">
+        <v>299757.38140524499</v>
+      </c>
+      <c r="F42" s="1">
+        <v>124449.1744</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>43041.599999999999</v>
+      </c>
+      <c r="I42" s="1">
+        <v>132266.60700524499</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="1">
+        <v>294751.35475150699</v>
+      </c>
+      <c r="F43" s="1">
+        <v>124449.1744</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>43041.599999999999</v>
+      </c>
+      <c r="I43" s="1">
+        <v>127260.580351507</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="1">
+        <v>464166.41619596502</v>
+      </c>
+      <c r="F44" s="1">
+        <v>124449.1744</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>43041.599999999999</v>
+      </c>
+      <c r="I44" s="1">
+        <v>258903.69273176699</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <v>37771.949064197601</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0</v>
+      </c>
+      <c r="M44" s="1">
         <v>0</v>
       </c>
     </row>

--- a/tests/airconditioning/★空調設備テストケース一覧.xlsx
+++ b/tests/airconditioning/★空調設備テストケース一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Python/builelib/tests/airconditioning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E62823-2790-7A49-8F86-CD33599CD781}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BED009-D458-6C48-A957-1F61EB604C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60260" yWindow="1200" windowWidth="33600" windowHeight="20540" xr2:uid="{60C330FB-41C1-A04B-99B2-744427EAABC1}"/>
+    <workbookView xWindow="6240" yWindow="1860" windowWidth="32860" windowHeight="20540" xr2:uid="{60C330FB-41C1-A04B-99B2-744427EAABC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="108">
   <si>
     <t>ケース名</t>
     <phoneticPr fontId="1"/>
@@ -760,6 +760,40 @@
   </si>
   <si>
     <t>Case043</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case044</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回転数制御+最小風量0</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">カイテンスウ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">セイギョ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">サイショウフウ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">フウリョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case045</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台数制御+1台目回転数制御+最小流量0</t>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">サイショウ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">リュウリョウ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1145,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CDC679-BA02-AE4E-A1A7-B05B8FCEDC09}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="113" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2963,6 +2997,88 @@
         <v>0</v>
       </c>
     </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="3">
+        <v>482732.43008160102</v>
+      </c>
+      <c r="F45" s="3">
+        <v>92618.251999999993</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>38737.440000000002</v>
+      </c>
+      <c r="I45" s="3">
+        <v>351376.73808160098</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="1">
+        <v>394635.35337614501</v>
+      </c>
+      <c r="F46" s="1">
+        <v>124066.3872</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>27384.887786666601</v>
+      </c>
+      <c r="I46" s="1">
+        <v>243184.07838947899</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/airconditioning/★空調設備テストケース一覧.xlsx
+++ b/tests/airconditioning/★空調設備テストケース一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Python/builelib/tests/airconditioning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BED009-D458-6C48-A957-1F61EB604C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A87DD73-E79A-3B4F-8F1A-0309F78AF13C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6240" yWindow="1860" windowWidth="32860" windowHeight="20540" xr2:uid="{60C330FB-41C1-A04B-99B2-744427EAABC1}"/>
   </bookViews>
@@ -1181,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CDC679-BA02-AE4E-A1A7-B05B8FCEDC09}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="113" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="113" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/tests/airconditioning/★空調設備テストケース一覧.xlsx
+++ b/tests/airconditioning/★空調設備テストケース一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Python/builelib/tests/airconditioning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A87DD73-E79A-3B4F-8F1A-0309F78AF13C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA3C965-7B86-DF40-AAE2-A24009C7D66A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="1860" windowWidth="32860" windowHeight="20540" xr2:uid="{60C330FB-41C1-A04B-99B2-744427EAABC1}"/>
+    <workbookView xWindow="6060" yWindow="3320" windowWidth="32880" windowHeight="27480" xr2:uid="{60C330FB-41C1-A04B-99B2-744427EAABC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="120">
   <si>
     <t>ケース名</t>
     <phoneticPr fontId="1"/>
@@ -794,6 +794,111 @@
     <rPh sb="16" eb="18">
       <t xml:space="preserve">リュウリョウ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case046</t>
+  </si>
+  <si>
+    <t>窓</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">マド </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同一方位に複数窓の入力（方法1）</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ドウイツホウイ </t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t xml:space="preserve">フクスウマド </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ホウホウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case047</t>
+  </si>
+  <si>
+    <t>同一方位に複数窓の入力（方法2）</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ドウイツホウイ </t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t xml:space="preserve">フクスウマド </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ホウホウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case048</t>
+  </si>
+  <si>
+    <t>同一方位に複数窓の入力（方法3）</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ドウイツホウイ </t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t xml:space="preserve">フクスウマド </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t xml:space="preserve">ホウホウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二次ポンプ群</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ニジポンプ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">グｎ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case049</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二次ポンプなし（冷暖とも）</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ニジポンプ </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">レイボウ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">ダンボウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二次ポンプなし（冷のみ）</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ニジポンプ </t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t xml:space="preserve">レイボウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case050</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1179,10 +1284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CDC679-BA02-AE4E-A1A7-B05B8FCEDC09}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="113" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3079,6 +3184,211 @@
         <v>0</v>
       </c>
     </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="1">
+        <v>395224.394738912</v>
+      </c>
+      <c r="F47" s="1">
+        <v>123763.04640000001</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>38327.519999999997</v>
+      </c>
+      <c r="I47" s="1">
+        <v>233133.82833891199</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="1">
+        <v>395224.394738912</v>
+      </c>
+      <c r="F48" s="1">
+        <v>123763.04640000001</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>38327.519999999997</v>
+      </c>
+      <c r="I48" s="1">
+        <v>233133.82833891199</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="1">
+        <v>395224.394738912</v>
+      </c>
+      <c r="F49" s="1">
+        <v>123763.04640000001</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>38327.519999999997</v>
+      </c>
+      <c r="I49" s="1">
+        <v>233133.82833891199</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0</v>
+      </c>
+      <c r="M49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="1">
+        <v>354821.08038626303</v>
+      </c>
+      <c r="F50" s="1">
+        <v>124066.3872</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>206384.94918626299</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1">
+        <v>24369.743999999901</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0</v>
+      </c>
+      <c r="M50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="1">
+        <v>314002.17608789599</v>
+      </c>
+      <c r="F51" s="1">
+        <v>124066.3872</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>15372</v>
+      </c>
+      <c r="I51" s="1">
+        <v>150501.48488789599</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <v>24062.303999999898</v>
+      </c>
+      <c r="L51" s="1">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/airconditioning/★空調設備テストケース一覧.xlsx
+++ b/tests/airconditioning/★空調設備テストケース一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Python/builelib/tests/airconditioning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA3C965-7B86-DF40-AAE2-A24009C7D66A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2053BE92-A052-0F44-80DF-7F938BC8A799}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="3320" windowWidth="32880" windowHeight="27480" xr2:uid="{60C330FB-41C1-A04B-99B2-744427EAABC1}"/>
+    <workbookView xWindow="11020" yWindow="3560" windowWidth="32880" windowHeight="27480" xr2:uid="{60C330FB-41C1-A04B-99B2-744427EAABC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1287,7 +1287,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2747,7 +2747,7 @@
         <v>22</v>
       </c>
       <c r="E36" s="3">
-        <v>434222.60656887299</v>
+        <v>475857.910176776</v>
       </c>
       <c r="F36" s="3">
         <v>124066.3872</v>
@@ -2759,13 +2759,13 @@
         <v>38122.559999999998</v>
       </c>
       <c r="I36" s="3">
-        <v>236962.259672277</v>
+        <v>275143.57440306002</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
       </c>
       <c r="K36" s="3">
-        <v>35071.399696595101</v>
+        <v>38525.3885737163</v>
       </c>
       <c r="L36" s="3">
         <v>0</v>
